--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>936545.7889639705</v>
+        <v>934124.3236508609</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767345</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>24.62149822509235</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>108.1032250584732</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>107.5003107098663</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>61.36917500887013</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>99.00641483896058</v>
+        <v>407.889594855998</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>170.0317013201284</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>121.8713578254458</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>127.4500188065875</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778495</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>117.71263363126</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>337.3160551545971</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.2160107437958</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>177.6504654367754</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.36985571834882</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.10628328435195</v>
+        <v>93.10628328435179</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>200.8287031225937</v>
       </c>
       <c r="U11" t="n">
         <v>250.9387147661294</v>
@@ -1464,10 +1464,10 @@
         <v>134.6218784006021</v>
       </c>
       <c r="H12" t="n">
-        <v>85.9501435555139</v>
+        <v>85.95014355551388</v>
       </c>
       <c r="I12" t="n">
-        <v>5.816834883872346</v>
+        <v>5.816834883872232</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.9405139481857</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>74.69849031983856</v>
+        <v>74.69849031983843</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.2522581002752</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.196377237229</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>11.31568982593416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>198.4170800104096</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337144</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328459</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>86.27179222793451</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>159.573214009968</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>162.4016674345627</v>
+        <v>21.63824106824784</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>7.54122690220053e-13</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.2078024559165</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740296</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890402</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046969</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833988</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>55.52079624060482</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365903</v>
+        <v>286.522998336589</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.272891771006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>214.0647808588527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>68.17501931583779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140707</v>
+        <v>1672.191441142817</v>
       </c>
       <c r="C2" t="n">
-        <v>926.2736972002956</v>
+        <v>1303.228924202405</v>
       </c>
       <c r="D2" t="n">
-        <v>926.2736972002956</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>926.2736972002956</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>515.2877924106881</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180641</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204829</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>472.104875776638</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>472.104875776638</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>321.9882363643022</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9882363643022</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0982888663919</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0982888663919</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201681</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.104875776638</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.138951213863</v>
+        <v>1569.101759311881</v>
       </c>
       <c r="C5" t="n">
-        <v>1661.138951213863</v>
+        <v>1569.101759311881</v>
       </c>
       <c r="D5" t="n">
-        <v>1302.873252607113</v>
+        <v>1210.836060705131</v>
       </c>
       <c r="E5" t="n">
-        <v>917.0850000088687</v>
+        <v>825.0478081068864</v>
       </c>
       <c r="F5" t="n">
-        <v>506.0990952192612</v>
+        <v>818.1023073576829</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450755</v>
+        <v>2719.306689612894</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189675</v>
+        <v>2345.840931351815</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>1955.701599376003</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3452334219999</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219999</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218345</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>749.13781256553</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>749.13781256553</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="V7" t="n">
-        <v>749.13781256553</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W7" t="n">
-        <v>749.13781256553</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X7" t="n">
-        <v>749.13781256553</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.3452334219999</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278964</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211459</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>382.0732636872191</v>
+        <v>828.1105664881543</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>417.1246616985468</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839473</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,28 +4878,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859227981</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031455</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158112</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438127</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.445961844415</v>
+        <v>185.4137665647694</v>
       </c>
       <c r="C10" t="n">
-        <v>349.5097789165081</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D10" t="n">
-        <v>199.3931395041724</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450127</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450127</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>440.0982547706562</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>185.4137665647694</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>185.4137665647694</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>185.4137665647694</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746548</v>
+        <v>185.4137665647694</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2004.541533300448</v>
+        <v>1801.684257419048</v>
       </c>
       <c r="C11" t="n">
-        <v>1635.579016360036</v>
+        <v>1432.721740478636</v>
       </c>
       <c r="D11" t="n">
-        <v>1294.85572832509</v>
+        <v>1074.456041871886</v>
       </c>
       <c r="E11" t="n">
-        <v>909.0674757268453</v>
+        <v>688.667789273642</v>
       </c>
       <c r="F11" t="n">
-        <v>498.0815709372377</v>
+        <v>277.6818844840343</v>
       </c>
       <c r="G11" t="n">
-        <v>83.72196412532274</v>
+        <v>277.6818844840343</v>
       </c>
       <c r="H11" t="n">
-        <v>83.72196412532274</v>
+        <v>98.23696990143287</v>
       </c>
       <c r="I11" t="n">
-        <v>83.72196412532274</v>
+        <v>83.7219641253229</v>
       </c>
       <c r="J11" t="n">
-        <v>331.8987991897689</v>
+        <v>331.89879918977</v>
       </c>
       <c r="K11" t="n">
-        <v>754.590059989587</v>
+        <v>754.5900599895889</v>
       </c>
       <c r="L11" t="n">
-        <v>1315.877707787739</v>
+        <v>1315.877707787742</v>
       </c>
       <c r="M11" t="n">
-        <v>1972.087801958784</v>
+        <v>1972.087801958787</v>
       </c>
       <c r="N11" t="n">
-        <v>2643.529869878882</v>
+        <v>2643.529869878886</v>
       </c>
       <c r="O11" t="n">
-        <v>3264.218313512954</v>
+        <v>3264.21831351296</v>
       </c>
       <c r="P11" t="n">
-        <v>3759.460539161017</v>
+        <v>3759.460539161023</v>
       </c>
       <c r="Q11" t="n">
-        <v>4083.194079157489</v>
+        <v>4083.194079157497</v>
       </c>
       <c r="R11" t="n">
-        <v>4186.098206266137</v>
+        <v>4186.098206266145</v>
       </c>
       <c r="S11" t="n">
-        <v>4092.051455473863</v>
+        <v>4092.051455473871</v>
       </c>
       <c r="T11" t="n">
-        <v>4092.051455473863</v>
+        <v>3889.194179592463</v>
       </c>
       <c r="U11" t="n">
-        <v>3838.578006215146</v>
+        <v>3635.720730333746</v>
       </c>
       <c r="V11" t="n">
-        <v>3507.515118871575</v>
+        <v>3304.657842990176</v>
       </c>
       <c r="W11" t="n">
-        <v>3154.746463601461</v>
+        <v>2951.889187720061</v>
       </c>
       <c r="X11" t="n">
-        <v>2781.280705340381</v>
+        <v>2578.423429458981</v>
       </c>
       <c r="Y11" t="n">
-        <v>2391.14137336457</v>
+        <v>2188.28409748317</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.4158817408644</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59755491711299</v>
+        <v>89.59755491711303</v>
       </c>
       <c r="I12" t="n">
-        <v>83.72196412532274</v>
+        <v>83.7219641253229</v>
       </c>
       <c r="J12" t="n">
-        <v>212.7165399511878</v>
+        <v>212.7165399511883</v>
       </c>
       <c r="K12" t="n">
-        <v>511.3436407162624</v>
+        <v>511.3436407162634</v>
       </c>
       <c r="L12" t="n">
-        <v>959.207171723252</v>
+        <v>833.2286115166427</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.199656222633</v>
+        <v>1375.221096016024</v>
       </c>
       <c r="N12" t="n">
-        <v>2071.945713953489</v>
+        <v>1945.967153746881</v>
       </c>
       <c r="O12" t="n">
-        <v>2556.27551506584</v>
+        <v>1945.967153746881</v>
       </c>
       <c r="P12" t="n">
-        <v>2556.27551506584</v>
+        <v>2327.84898760839</v>
       </c>
       <c r="Q12" t="n">
-        <v>2556.27551506584</v>
+        <v>2533.207683901341</v>
       </c>
       <c r="R12" t="n">
         <v>2556.27551506584</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>690.835444646852</v>
+        <v>83.72196412532287</v>
       </c>
       <c r="C13" t="n">
-        <v>521.8992617189451</v>
+        <v>83.72196412532287</v>
       </c>
       <c r="D13" t="n">
-        <v>521.8992617189451</v>
+        <v>83.7219641253229</v>
       </c>
       <c r="E13" t="n">
-        <v>373.986168136552</v>
+        <v>83.7219641253229</v>
       </c>
       <c r="F13" t="n">
-        <v>227.0962206386416</v>
+        <v>83.7219641253229</v>
       </c>
       <c r="G13" t="n">
-        <v>227.0962206386416</v>
+        <v>83.7219641253229</v>
       </c>
       <c r="H13" t="n">
-        <v>83.72196412532274</v>
+        <v>83.7219641253229</v>
       </c>
       <c r="I13" t="n">
-        <v>83.72196412532274</v>
+        <v>83.7219641253229</v>
       </c>
       <c r="J13" t="n">
-        <v>117.7016606826971</v>
+        <v>117.7016606826975</v>
       </c>
       <c r="K13" t="n">
-        <v>252.4231786760673</v>
+        <v>252.423178676068</v>
       </c>
       <c r="L13" t="n">
-        <v>454.7261364145511</v>
+        <v>454.7261364145521</v>
       </c>
       <c r="M13" t="n">
-        <v>671.2845233962405</v>
+        <v>671.2845233962419</v>
       </c>
       <c r="N13" t="n">
-        <v>890.551161873248</v>
+        <v>890.55116187325</v>
       </c>
       <c r="O13" t="n">
-        <v>1072.766302922986</v>
+        <v>1072.766302922988</v>
       </c>
       <c r="P13" t="n">
-        <v>1209.620863594892</v>
+        <v>1209.620863594895</v>
       </c>
       <c r="Q13" t="n">
-        <v>1248.784089762308</v>
+        <v>1248.784089762311</v>
       </c>
       <c r="R13" t="n">
-        <v>1173.331069237218</v>
+        <v>1173.331069237222</v>
       </c>
       <c r="S13" t="n">
-        <v>1173.331069237218</v>
+        <v>987.2176772167415</v>
       </c>
       <c r="T13" t="n">
-        <v>1173.331069237218</v>
+        <v>766.8172961690348</v>
       </c>
       <c r="U13" t="n">
-        <v>1173.331069237218</v>
+        <v>766.8172961690348</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.901079514052</v>
+        <v>512.1328079631479</v>
       </c>
       <c r="W13" t="n">
-        <v>872.4839094770917</v>
+        <v>311.7115150233402</v>
       </c>
       <c r="X13" t="n">
-        <v>872.4839094770917</v>
+        <v>83.72196412532287</v>
       </c>
       <c r="Y13" t="n">
-        <v>872.4839094770917</v>
+        <v>83.72196412532287</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708297</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2133.192111344164</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.5822429537268</v>
+        <v>494.058990022073</v>
       </c>
       <c r="C16" t="n">
-        <v>634.6460600258199</v>
+        <v>494.058990022073</v>
       </c>
       <c r="D16" t="n">
-        <v>484.529420613484</v>
+        <v>494.058990022073</v>
       </c>
       <c r="E16" t="n">
-        <v>484.529420613484</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F16" t="n">
-        <v>484.529420613484</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880632</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2267.190709753635</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.190709753635</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.114496068361</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.430007862474</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.012837825514</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.023286927497</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.2307077839665</v>
+        <v>675.7074548523127</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,19 +5589,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434713</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278216</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>408.9258559154858</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330927</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5908,10 +5908,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5929,10 +5929,10 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5941,19 +5941,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,61 +5978,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327647</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048579</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925222</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101292</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630045</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,34 +6215,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740066</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138359</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949676</v>
+        <v>695.5020655703057</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,25 +6464,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6677,13 +6677,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.6725264685181</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238954</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235159</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.5067842581</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7415,16 +7415,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7640,22 +7640,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,31 +7664,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597622</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597622</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746422</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168405</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>17.3669864660859</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.2160107437958</v>
       </c>
       <c r="H11" t="n">
-        <v>287.380361568789</v>
+        <v>109.7298961320136</v>
       </c>
       <c r="I11" t="n">
-        <v>14.36985571834907</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>200.8287031225938</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.7092488456592</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.9405139481857</v>
       </c>
       <c r="I13" t="n">
-        <v>86.83261550597828</v>
+        <v>86.8326155059782</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.2522581002752</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.196377237229</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.19457132852</v>
       </c>
       <c r="V13" t="n">
-        <v>240.8219534978938</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>88.10591832618138</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613728905</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>60.16217041863466</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>21.76527434849092</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.845153664065151</v>
+        <v>145.60858003038</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516646</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823381</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.6241777260208</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459828</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409393098</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>73.62417772602213</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459136</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610398</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237485</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>72.11969353039149</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.44045370237457</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038559</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>884467.2867916452</v>
+        <v>884467.2867916463</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977244.4371609208</v>
+        <v>977244.4371609204</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232907</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232906</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>982604.6308232908</v>
+        <v>982604.6308232909</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="C2" t="n">
-        <v>451572.973425356</v>
-      </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795039</v>
+        <v>405380.8397795043</v>
       </c>
       <c r="F2" t="n">
         <v>441473.874400917</v>
@@ -26341,19 +26341,19 @@
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="M2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="O2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="O2" t="n">
-        <v>443930.6298295034</v>
-      </c>
       <c r="P2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.841779966431205e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>205265.6758529952</v>
+        <v>205265.6758529964</v>
       </c>
       <c r="F3" t="n">
-        <v>105843.5890320692</v>
+        <v>105843.5890320667</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53609.53605651369</v>
+        <v>53609.53605651406</v>
       </c>
       <c r="N3" t="n">
-        <v>27828.78668214132</v>
+        <v>27828.78668214065</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405243</v>
       </c>
       <c r="E4" t="n">
-        <v>695.9801673478401</v>
+        <v>695.980167347841</v>
       </c>
       <c r="F4" t="n">
         <v>14820.16342064201</v>
@@ -26445,7 +26445,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26457,7 +26457,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>91212.74033452524</v>
+        <v>91212.74033452541</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1078702.456967683</v>
       </c>
       <c r="C6" t="n">
-        <v>250042.2887599105</v>
+        <v>250042.2887599101</v>
       </c>
       <c r="D6" t="n">
-        <v>250042.2887599103</v>
+        <v>250042.2887599095</v>
       </c>
       <c r="E6" t="n">
-        <v>108206.4434246356</v>
+        <v>107996.4791807899</v>
       </c>
       <c r="F6" t="n">
-        <v>220667.9934343674</v>
+        <v>220622.0884388043</v>
       </c>
       <c r="G6" t="n">
-        <v>316814.1677281501</v>
+        <v>316779.4298027139</v>
       </c>
       <c r="H6" t="n">
-        <v>327981.4039637287</v>
+        <v>327946.6660382932</v>
       </c>
       <c r="I6" t="n">
-        <v>327981.4039637289</v>
+        <v>327946.6660382932</v>
       </c>
       <c r="J6" t="n">
-        <v>110450.2015664513</v>
+        <v>110415.4636410157</v>
       </c>
       <c r="K6" t="n">
-        <v>327981.4039637291</v>
+        <v>327946.6660382932</v>
       </c>
       <c r="L6" t="n">
-        <v>327981.403963729</v>
+        <v>327946.6660382933</v>
       </c>
       <c r="M6" t="n">
-        <v>274371.8679072153</v>
+        <v>274337.1299817791</v>
       </c>
       <c r="N6" t="n">
-        <v>300152.6172815877</v>
+        <v>300117.8793561526</v>
       </c>
       <c r="O6" t="n">
-        <v>324958.1059865042</v>
+        <v>324923.3680610685</v>
       </c>
       <c r="P6" t="n">
-        <v>327981.4039637289</v>
+        <v>327946.6660382931</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1265.323284370641</v>
+        <v>1265.323284370642</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1046.524551566534</v>
+        <v>1046.524551566536</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>175.5465837773424</v>
+        <v>175.5465837773434</v>
       </c>
       <c r="F3" t="n">
-        <v>92.71776434574508</v>
+        <v>92.71776434574303</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>215.1230961642417</v>
+        <v>215.1230961642432</v>
       </c>
       <c r="F4" t="n">
-        <v>113.6207387594727</v>
+        <v>113.6207387594698</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>215.1230961642417</v>
+        <v>215.1230961642432</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6207387594725</v>
+        <v>113.6207387594698</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>215.1230961642417</v>
+        <v>215.1230961642432</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6207387594727</v>
+        <v>113.6207387594698</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>330.0615433955906</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>302.8185005949802</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>37.25470420445446</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>157.2154783432247</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>311.9153108144928</v>
+        <v>3.032130797455409</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>49.51724795604076</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>164.3404803801671</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>254.4803512656742</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228543</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>49.53418746736779</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>14.88174980530007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-7.965435133550913e-13</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>3.042122667676409e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29967,7 +29967,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>2.073837398105146e-12</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.593900890669893e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-3.003332931224095e-12</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026411</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,46 +31671,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.086726771339255</v>
+        <v>5.086726771339261</v>
       </c>
       <c r="H11" t="n">
-        <v>52.09444054697816</v>
+        <v>52.09444054697823</v>
       </c>
       <c r="I11" t="n">
-        <v>196.1060338520568</v>
+        <v>196.1060338520571</v>
       </c>
       <c r="J11" t="n">
-        <v>431.7295763089555</v>
+        <v>431.729576308956</v>
       </c>
       <c r="K11" t="n">
-        <v>647.0507205397463</v>
+        <v>647.0507205397471</v>
       </c>
       <c r="L11" t="n">
-        <v>802.7236349681202</v>
+        <v>802.7236349681212</v>
       </c>
       <c r="M11" t="n">
-        <v>893.1847121879247</v>
+        <v>893.1847121879258</v>
       </c>
       <c r="N11" t="n">
-        <v>907.6373746269925</v>
+        <v>907.6373746269936</v>
       </c>
       <c r="O11" t="n">
-        <v>857.0562352944877</v>
+        <v>857.0562352944887</v>
       </c>
       <c r="P11" t="n">
-        <v>731.4776681270497</v>
+        <v>731.4776681270506</v>
       </c>
       <c r="Q11" t="n">
-        <v>549.3092656284624</v>
+        <v>549.3092656284631</v>
       </c>
       <c r="R11" t="n">
-        <v>319.5291005501398</v>
+        <v>319.5291005501402</v>
       </c>
       <c r="S11" t="n">
-        <v>115.9137863018934</v>
+        <v>115.9137863018936</v>
       </c>
       <c r="T11" t="n">
-        <v>22.2671464415376</v>
+        <v>22.26714644153763</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4069381417071404</v>
+        <v>0.4069381417071409</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.721638762608548</v>
+        <v>2.721638762608551</v>
       </c>
       <c r="H12" t="n">
-        <v>26.28530068098256</v>
+        <v>26.28530068098259</v>
       </c>
       <c r="I12" t="n">
-        <v>93.70554511612765</v>
+        <v>93.70554511612777</v>
       </c>
       <c r="J12" t="n">
-        <v>257.1351780059243</v>
+        <v>257.1351780059246</v>
       </c>
       <c r="K12" t="n">
-        <v>439.484975100697</v>
+        <v>439.4849751006976</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9417848374394</v>
+        <v>463.6907139216714</v>
       </c>
       <c r="M12" t="n">
-        <v>689.6011899819991</v>
+        <v>689.6011899819999</v>
       </c>
       <c r="N12" t="n">
-        <v>707.85288150844</v>
+        <v>707.8528815084408</v>
       </c>
       <c r="O12" t="n">
-        <v>631.8182657700515</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>519.7136335370664</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>347.4148006445583</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>168.9803435240644</v>
       </c>
       <c r="S12" t="n">
-        <v>50.55324631424207</v>
+        <v>50.55324631424214</v>
       </c>
       <c r="T12" t="n">
-        <v>10.97011413525112</v>
+        <v>10.97011413525113</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1790551817505625</v>
+        <v>0.1790551817505627</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.281730512799516</v>
+        <v>2.281730512799519</v>
       </c>
       <c r="H13" t="n">
-        <v>20.28665855925389</v>
+        <v>20.28665855925392</v>
       </c>
       <c r="I13" t="n">
-        <v>68.61785942128</v>
+        <v>68.61785942128009</v>
       </c>
       <c r="J13" t="n">
-        <v>161.3183472549258</v>
+        <v>161.318347254926</v>
       </c>
       <c r="K13" t="n">
-        <v>265.0955995779801</v>
+        <v>265.0955995779804</v>
       </c>
       <c r="L13" t="n">
-        <v>339.2310982393026</v>
+        <v>339.231098239303</v>
       </c>
       <c r="M13" t="n">
-        <v>357.671629383655</v>
+        <v>357.6716293836554</v>
       </c>
       <c r="N13" t="n">
-        <v>349.1669974723116</v>
+        <v>349.1669974723121</v>
       </c>
       <c r="O13" t="n">
-        <v>322.5122364818808</v>
+        <v>322.5122364818812</v>
       </c>
       <c r="P13" t="n">
-        <v>275.9649340207704</v>
+        <v>275.9649340207708</v>
       </c>
       <c r="Q13" t="n">
-        <v>191.0638159399668</v>
+        <v>191.063815939967</v>
       </c>
       <c r="R13" t="n">
-        <v>102.5949010573309</v>
+        <v>102.5949010573311</v>
       </c>
       <c r="S13" t="n">
-        <v>39.76433993669701</v>
+        <v>39.76433993669706</v>
       </c>
       <c r="T13" t="n">
-        <v>9.749212191052475</v>
+        <v>9.749212191052486</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1244580279708828</v>
+        <v>0.124458027970883</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>615.6579511813127</v>
+        <v>427.3161054158224</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,16 +33263,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,7 +34217,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597442</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>250.6836717822692</v>
+        <v>250.6836717822698</v>
       </c>
       <c r="K11" t="n">
-        <v>426.9608694947657</v>
+        <v>426.9608694947665</v>
       </c>
       <c r="L11" t="n">
-        <v>566.957219998133</v>
+        <v>566.957219998134</v>
       </c>
       <c r="M11" t="n">
-        <v>662.838478960652</v>
+        <v>662.8384789606531</v>
       </c>
       <c r="N11" t="n">
-        <v>678.2243110304016</v>
+        <v>678.2243110304028</v>
       </c>
       <c r="O11" t="n">
-        <v>626.9580238728009</v>
+        <v>626.958023872802</v>
       </c>
       <c r="P11" t="n">
-        <v>500.2446723717802</v>
+        <v>500.2446723717811</v>
       </c>
       <c r="Q11" t="n">
-        <v>327.0035757540129</v>
+        <v>327.0035757540136</v>
       </c>
       <c r="R11" t="n">
-        <v>103.9435627360077</v>
+        <v>103.9435627360081</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>130.2975513392576</v>
+        <v>130.2975513392579</v>
       </c>
       <c r="K12" t="n">
-        <v>301.643536126338</v>
+        <v>301.6435361263386</v>
       </c>
       <c r="L12" t="n">
-        <v>452.3874050575652</v>
+        <v>325.1363341417972</v>
       </c>
       <c r="M12" t="n">
-        <v>547.4671560599809</v>
+        <v>547.4671560599816</v>
       </c>
       <c r="N12" t="n">
-        <v>576.5111694251067</v>
+        <v>576.5111694251075</v>
       </c>
       <c r="O12" t="n">
-        <v>489.2220213256072</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>385.7392261227361</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>207.4330265585368</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.3008395601004</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.32292581552964</v>
+        <v>34.32292581552984</v>
       </c>
       <c r="K13" t="n">
-        <v>136.0823414074447</v>
+        <v>136.082341407445</v>
       </c>
       <c r="L13" t="n">
-        <v>204.3464219580644</v>
+        <v>204.3464219580648</v>
       </c>
       <c r="M13" t="n">
-        <v>218.7458454360499</v>
+        <v>218.7458454360504</v>
       </c>
       <c r="N13" t="n">
-        <v>221.4814530070784</v>
+        <v>221.4814530070789</v>
       </c>
       <c r="O13" t="n">
-        <v>184.055698030038</v>
+        <v>184.0556980300384</v>
       </c>
       <c r="P13" t="n">
-        <v>138.2369299716228</v>
+        <v>138.2369299716232</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.55881431052092</v>
+        <v>39.55881431052114</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>484.3162390979793</v>
+        <v>295.9743933324891</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060401</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
